--- a/aiurt-module-system/src/main/resources/templates/fixedAssetsCategory.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/fixedAssetsCategory.xlsx
@@ -91,26 +91,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>上级节点名称。例如一级节点名称为建筑，二级节点名称为桥梁，三级节点名称为拱桥，那么拱桥的上级节点填写为建筑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桥梁。桥梁的上级节点是建筑。</t>
+      <t>上级节点名称。例如一级节点名称为建筑，二级节点名称为桥梁，三级节点名称为拱桥，那么桥梁的上级节点是：建筑，拱桥的上级节点填写为：建筑/桥梁。</t>
     </r>
     <r>
       <rPr>
@@ -149,7 +130,67 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>固定资产分类最多三级，一级分类编码为两位数，二级分类编码为一级级编码加三位数，三级分类编码为二级编码加四位数，同级的编码不允许重复。</t>
+      <t>固定资产分类最多三级，编码不允许重复，且只能填写数字。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一级分类编码为两位数；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>二级分类编码为一级编码加三位数，填写后三位数即可。例如二级分类编码为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">01001，01为一级的编码，导入时只输入001即可；
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三级分类编码为二级编码加四位数，填写后四位数即可；</t>
     </r>
     <r>
       <rPr>
@@ -160,26 +201,12 @@
       </rPr>
       <t xml:space="preserve">
 3.分类名称：必填字段
-4.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>分类状态</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>：必填字段，分为启用、停用两种</t>
+分类名称限制如下：
+3.1 根节点之间不能重复；
+3.2 同根下枝干之间不能重复；
+3.3 不同根下枝干可重复；
+3.4 同根同枝同叶之间不能重复；
+3.5 同根不同枝叶子之间可重复；</t>
     </r>
   </si>
   <si>
@@ -205,7 +232,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,13 +270,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -737,48 +757,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,106 +811,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1255,7 +1272,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1270,29 +1287,29 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
     </row>
-    <row r="2" ht="186" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="249" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
